--- a/public/templates/template_jadwal.xlsx
+++ b/public/templates/template_jadwal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistem-absensi-guru\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBA8E74B-6665-410B-B58A-280B88E92DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50E9C5B-19C8-49FD-BA99-B2CFA704516A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{F2E6EE54-A982-425E-98AE-7F6754A2AB97}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F2E6EE54-A982-425E-98AE-7F6754A2AB97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>nip_guru</t>
   </si>
   <si>
-    <t xml:space="preserve"> mata_pelajaran</t>
-  </si>
-  <si>
     <t>kelas</t>
   </si>
   <si>
@@ -45,7 +42,10 @@
     <t>tipe_blok</t>
   </si>
   <si>
-    <t>nama_guru</t>
+    <t>username_guru</t>
+  </si>
+  <si>
+    <t>mata_pelajaran</t>
   </si>
 </sst>
 </file>
@@ -86,9 +86,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,12 +407,13 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -419,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
